--- a/data/trans_orig/Q19B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Estudios-trans_orig.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,75; 60,43</t>
+          <t>48,58; 61,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,53; 71,56</t>
+          <t>58,56; 71,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,69; 57,99</t>
+          <t>42,7; 58,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,11; 68,9</t>
+          <t>57,21; 69,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,29; 65,82</t>
+          <t>52,76; 65,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,38; 48,11</t>
+          <t>36,68; 48,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,83; 63,71</t>
+          <t>54,76; 63,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,18; 65,79</t>
+          <t>56,68; 65,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,08; 51,0</t>
+          <t>40,74; 50,39</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,46; 32,01</t>
+          <t>27,39; 31,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,73; 35,61</t>
+          <t>30,42; 35,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,61; 35,33</t>
+          <t>29,8; 34,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 27,5</t>
+          <t>23,91; 27,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,58; 29,47</t>
+          <t>25,58; 29,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,23; 27,49</t>
+          <t>23,38; 27,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 29,19</t>
+          <t>26,11; 29,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 32,19</t>
+          <t>28,8; 32,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,33; 30,59</t>
+          <t>27,23; 30,75</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,91; 36,54</t>
+          <t>27,14; 36,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,72; 45,78</t>
+          <t>32,29; 46,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,77; 47,13</t>
+          <t>26,18; 48,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,53; 28,87</t>
+          <t>21,49; 28,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,11; 29,88</t>
+          <t>20,64; 30,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 29,04</t>
+          <t>17,87; 30,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,36; 31,94</t>
+          <t>25,45; 31,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,11; 36,74</t>
+          <t>28,0; 36,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,79; 34,15</t>
+          <t>22,88; 34,92</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,78</t>
+          <t>34,89; 39,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,38; 45,88</t>
+          <t>40,43; 46,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 38,45</t>
+          <t>32,86; 38,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,53; 43,15</t>
+          <t>37,6; 43,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,99; 42,36</t>
+          <t>36,95; 42,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 30,95</t>
+          <t>26,68; 30,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,89; 40,53</t>
+          <t>36,9; 40,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,47; 43,34</t>
+          <t>39,35; 43,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,5; 34,1</t>
+          <t>30,52; 33,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q19B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio en meses desde la última vez que acudió al dentista, protésico o higienista dental</t>
+          <t>Tiempo medio en meses desde la última consulta al dentista, protésico o higienista dental</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
